--- a/Reto 4/Maquetación reto 4.xlsx
+++ b/Reto 4/Maquetación reto 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProjectSupport\Documents\GitHub\Python\Reto 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E8507-2930-46DE-86D9-A0FD95C4F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD01EC0-5293-40ED-A6A8-2794E3044784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCA33D8B-BFC3-4744-97DE-E77E8D039D78}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Dia 1</t>
   </si>
@@ -85,21 +85,6 @@
     <t>Sumamente</t>
   </si>
   <si>
-    <t>Sumamente:  1</t>
-  </si>
-  <si>
-    <t>Moderadamente:  3</t>
-  </si>
-  <si>
-    <t>Marginalmente:  2</t>
-  </si>
-  <si>
-    <t>Sumamente:  0</t>
-  </si>
-  <si>
-    <t>Moderadamente:  4</t>
-  </si>
-  <si>
     <t>Conteo total de categorias por zona</t>
   </si>
   <si>
@@ -112,21 +97,9 @@
     <t>No apto</t>
   </si>
   <si>
-    <t>Marginalmente:  5</t>
-  </si>
-  <si>
-    <t>Moderadamente:  2</t>
-  </si>
-  <si>
     <t>Categorias en 0, NO SON TENIDAS EN CUENTA</t>
   </si>
   <si>
-    <t>No apto:  1</t>
-  </si>
-  <si>
-    <t>No apto:  0</t>
-  </si>
-  <si>
     <t>IMPRESIÓN FINAL en linea (De mas presentada a menos presentada, separadas por coma)</t>
   </si>
   <si>
@@ -152,13 +125,25 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Moderadamente: 2</t>
+  </si>
+  <si>
+    <t>No apto:   0</t>
+  </si>
+  <si>
+    <t>Marginalmente:  1</t>
+  </si>
+  <si>
+    <t>Sumamente:   3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -209,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -372,14 +365,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -389,28 +382,17 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -434,7 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,7 +439,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,27 +463,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1569121-F8DD-4253-B3F7-01AECAFAE877}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,9 +815,9 @@
     <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.77734375" customWidth="1"/>
     <col min="16" max="16" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -837,7 +825,7 @@
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -848,8 +836,8 @@
       <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>35</v>
+      <c r="A3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -874,33 +862,33 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>5</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>0</v>
       </c>
       <c r="B5" s="7">
@@ -926,7 +914,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -952,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
       <c r="B7" s="10">
@@ -978,7 +966,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5"/>
@@ -1001,7 +989,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -1012,8 +1000,8 @@
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>37</v>
+      <c r="A11" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>0</v>
@@ -1038,33 +1026,33 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20">
         <v>0</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>3</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>5</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>0</v>
       </c>
       <c r="B13" s="7">
@@ -1090,7 +1078,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
       <c r="B14" s="3">
@@ -1116,7 +1104,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
       <c r="B15" s="8">
@@ -1142,22 +1130,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:17" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>33</v>
+      <c r="A19" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -1165,59 +1153,67 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="29"/>
-      <c r="J19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>27</v>
+      <c r="J19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="21">
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20">
         <v>0</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>3</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>4</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>5</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>6</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
+      <c r="J20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>33</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="16"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1241,17 +1237,17 @@
       <c r="H21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>16</v>
+      <c r="J21" s="37">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
+        <v>2</v>
+      </c>
+      <c r="L21" s="16">
+        <v>3</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>13</v>
@@ -1261,7 +1257,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1285,27 +1281,27 @@
       <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="J22" s="30">
+        <v>1</v>
+      </c>
+      <c r="K22" s="30">
+        <v>2</v>
+      </c>
+      <c r="L22" s="30">
+        <v>4</v>
+      </c>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1329,18 +1325,18 @@
       <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>19</v>
+      <c r="I23" s="11"/>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16">
+        <v>2</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>12</v>
@@ -1350,35 +1346,35 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="K24" s="21"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J25" s="24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="26"/>
       <c r="O25" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="13" t="s">
+      <c r="J26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="19" t="s">
+      <c r="L26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O26" s="4" t="s">
@@ -1389,23 +1385,24 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J27" s="17">
+      <c r="H27" s="38"/>
+      <c r="J27" s="16">
         <v>2</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>9</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="16">
         <v>9</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <v>1</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
